--- a/output/co_closure_summary.xlsx
+++ b/output/co_closure_summary.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,32 +422,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bright Horizons Pre-Kindergarten School</t>
+          <t>Crowley County Primary</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>00382</t>
+          <t>00283</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Adams 12 Five Star Schools</t>
+          <t>Crowley County RE-1-J</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0770</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0806900</t>
+          <t>0803210</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -474,32 +474,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P-Tech Early College at Northglenn High School</t>
+          <t>Pleasant View Elementary School</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6845</t>
+          <t>7078</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>06674</t>
+          <t>00774</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Adams 12 Five Star Schools</t>
+          <t>Jefferson County R-1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0806900</t>
+          <t>0804800</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -526,32 +526,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>St. Vrain Valley P-TECH School</t>
+          <t>Lake County Alternative School</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1221</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>06680</t>
+          <t>5317</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>St Vrain Valley RE1J</t>
+          <t>Lake County R-1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0470</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0805370</t>
+          <t>0805190</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -578,32 +573,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Boulder Explore</t>
+          <t>De Beque Elementary School</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0866</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>06557</t>
+          <t>00285</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Boulder Valley Re 2</t>
+          <t>De Beque 49JT</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0480</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0802490</t>
+          <t>0803240</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -630,32 +625,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Crowley County Primary</t>
+          <t>Underwood Elementary School</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>8960</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>00283</t>
+          <t>00292</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Crowley County RE-1-J</t>
+          <t>Upper Rio Grande School District C-7</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0770</t>
+          <t>2730</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0803210</t>
+          <t>0803300</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -672,27 +667,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2017-2018</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gilpin Montessori Public School</t>
+          <t>Henry World School</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3426</t>
+          <t>8054</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>00353</t>
+          <t>00363</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -724,42 +719,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2017-2018</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Rock Canyon HS Pre-K</t>
+          <t>Kepner Middle School</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7242</t>
+          <t>4656</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>06612</t>
+          <t>00370</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Douglas County Re 1</t>
+          <t>Denver County 1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0900</t>
+          <t>0880</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0803450</t>
+          <t>0803360</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -776,42 +771,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2017-2018</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Pleasant View Elementary School</t>
+          <t>Rico Elementary School</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7078</t>
+          <t>0050</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>00774</t>
+          <t>01958</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Jefferson County R-1</t>
+          <t>Dolores County RE No.2</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1420</t>
+          <t>0890</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0804800</t>
+          <t>0803420</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -828,37 +823,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2017-2018</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Lake County Alternative School</t>
+          <t>East Elementary School</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5317</t>
+          <t>2374</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>00979</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lake County R-1</t>
+          <t>Moffat County RE: No 1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0805190</t>
+          <t>0805730</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -875,42 +875,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2017-2018</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>De Beque Elementary School</t>
+          <t>Fletcher Community School</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2122</t>
+          <t>2998</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>00285</t>
+          <t>06424</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>De Beque 49JT</t>
+          <t>Adams-Arapahoe 28J</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>0180</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0803240</t>
+          <t>0802340</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -927,42 +927,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2017-2018</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Underwood Elementary School</t>
+          <t>Fremont Middle School</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8960</t>
+          <t>3226</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>00292</t>
+          <t>01595</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Upper Rio Grande School District C-7</t>
+          <t>Fremont RE-2</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2730</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0803300</t>
+          <t>0803960</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -979,42 +979,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2017-2018</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>George Saiter School of Excellence</t>
+          <t>Livermore Elementary School</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6218</t>
+          <t>5234</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>01492</t>
+          <t>00537</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Pikes Peak BOCES</t>
+          <t>Poudre R-1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>9045</t>
+          <t>1550</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0899240</t>
+          <t>0803990</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1031,42 +1031,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2017-2018</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mountain View Virtual</t>
+          <t>Red Feather Lakes Elementary School</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7484</t>
+          <t>7290</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>06654</t>
+          <t>00543</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Education reEnvisioned BOCES</t>
+          <t>Poudre R-1</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9170</t>
+          <t>1550</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0800282</t>
+          <t>0803990</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1083,42 +1083,42 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Halcyon School (Special Education)</t>
+          <t>Stove Prairie Elementary School</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3499</t>
+          <t>8318</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>01467</t>
+          <t>00546</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Boulder Valley Re 2</t>
+          <t>Poudre R-1</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0480</t>
+          <t>1550</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0802490</t>
+          <t>0803990</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1135,42 +1135,42 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Henry World School</t>
+          <t>Stansberry Elementary School</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8054</t>
+          <t>7650</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>00363</t>
+          <t>01353</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Denver County 1</t>
+          <t>Thompson R2-J</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0880</t>
+          <t>1560</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0803360</t>
+          <t>0805400</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1187,42 +1187,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Kepner Middle School</t>
+          <t>Van Buren Elementary School</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4656</t>
+          <t>9055</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>00370</t>
+          <t>00940</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Denver County 1</t>
+          <t>Thompson R2-J</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0880</t>
+          <t>1560</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0803360</t>
+          <t>0805400</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1239,42 +1239,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Rico Elementary School</t>
+          <t>Holly Elementary School</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0050</t>
+          <t>7794</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>01958</t>
+          <t>00682</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dolores County RE No.2</t>
+          <t>Holly RE-3</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0890</t>
+          <t>2670</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0803420</t>
+          <t>0804680</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1291,42 +1291,42 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>McLain Community High School</t>
+          <t>Holly Junior High School</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0034</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>01349</t>
+          <t>06405</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Jefferson County R-1</t>
+          <t>Holly RE-3</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1420</t>
+          <t>2670</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0804800</t>
+          <t>0804680</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1343,42 +1343,42 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>East Elementary School</t>
+          <t>Heroes Middle School</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2374</t>
+          <t>3206</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>00979</t>
+          <t>01043</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Moffat County RE: No 1</t>
+          <t>Pueblo City 60</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2690</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0805730</t>
+          <t>0806120</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1395,42 +1395,42 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Prairie Preschool</t>
+          <t>Francis M. Day Elementary School</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6619</t>
+          <t>3144</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>06604</t>
+          <t>01236</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cherry Creek 5</t>
+          <t>Westminster Public Schools</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0130</t>
+          <t>0070</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0802910</t>
+          <t>0807230</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1447,42 +1447,42 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fletcher Community School</t>
+          <t>Alamosa Ombudsman School of Excellence</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2998</t>
+          <t>0368</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>06424</t>
+          <t>06508</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Adams-Arapahoe 28J</t>
+          <t>Alamosa RE-11J</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0180</t>
+          <t>0100</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0802340</t>
+          <t>0802070</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1499,42 +1499,42 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Highlands Ranch HS Pre-K</t>
+          <t>June Creek Elementary School</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3968</t>
+          <t>4838</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>06628</t>
+          <t>06366</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Douglas County Re 1</t>
+          <t>Eagle County RE 50</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0900</t>
+          <t>0910</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0803450</t>
+          <t>0803540</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1551,42 +1551,42 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Conrad Early Learning Center</t>
+          <t>Frontier High School</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2037</t>
+          <t>3236</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>06655</t>
+          <t>01775</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Fountain 8</t>
+          <t>Elizabeth School District</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0920</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0804080</t>
+          <t>0803720</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1603,42 +1603,42 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fremont Middle School</t>
+          <t>Calhan Middle School</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3226</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>01595</t>
+          <t>00510</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Fremont RE-2</t>
+          <t>Calhan RJ-1</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>0970</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0803960</t>
+          <t>0802730</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1655,42 +1655,42 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Livermore Elementary School</t>
+          <t>Lake County Early College</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5234</t>
+          <t>4952</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>00537</t>
+          <t>06729</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Poudre R-1</t>
+          <t>Lake County R-1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0803990</t>
+          <t>0805190</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1707,42 +1707,42 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Red Feather Lakes Elementary School</t>
+          <t>Eckhart Elementary School</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7290</t>
+          <t>2481</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>00543</t>
+          <t>01201</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Poudre R-1</t>
+          <t>Trinidad 1</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>1580</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0803990</t>
+          <t>0806960</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1759,42 +1759,42 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Stove Prairie Elementary School</t>
+          <t>Buchanan Middle School</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>8318</t>
+          <t>9729</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>00546</t>
+          <t>01817</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Poudre R-1</t>
+          <t>Wray RD-2</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>3210</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0803990</t>
+          <t>0800017</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1811,42 +1811,42 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2021-2022</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Stansberry Elementary School</t>
+          <t>Valley View K-8</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7650</t>
+          <t>9036</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>01353</t>
+          <t>00959</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Thompson R2-J</t>
+          <t>Mapleton 1</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1560</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0805400</t>
+          <t>0805550</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1863,42 +1863,42 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2021-2022</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Van Buren Elementary School</t>
+          <t>North Elementary School</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>9055</t>
+          <t>6294</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>00940</t>
+          <t>00148</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Thompson R2-J</t>
+          <t>School District 27J</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1560</t>
+          <t>0040</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0805400</t>
+          <t>0802580</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1915,42 +1915,42 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2021-2022</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Holly Elementary School</t>
+          <t>Franklin Elementary School</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>7794</t>
+          <t>0752</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>00682</t>
+          <t>00878</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Holly RE-3</t>
+          <t>Littleton 6</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2670</t>
+          <t>0140</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0804680</t>
+          <t>0805310</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1967,42 +1967,42 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2021-2022</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Holly Junior High School</t>
+          <t>Century Elementary School</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4069</t>
+          <t>1470</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>06405</t>
+          <t>01388</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Holly RE-3</t>
+          <t>Adams-Arapahoe 28J</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2670</t>
+          <t>0180</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0804680</t>
+          <t>0802340</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2019,42 +2019,42 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2021-2022</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Heroes Middle School</t>
+          <t>Lyn Knoll Elementary School</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3206</t>
+          <t>5361</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>01043</t>
+          <t>00070</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Pueblo City 60</t>
+          <t>Adams-Arapahoe 28J</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>0180</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0806120</t>
+          <t>0802340</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2071,42 +2071,42 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2021-2022</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Francis M. Day Elementary School</t>
+          <t>Immersion Schools Science Technology Arts</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3144</t>
+          <t>4279</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>01236</t>
+          <t>06679</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Westminster Public Schools</t>
+          <t>Las Animas RE-1</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0070</t>
+          <t>0290</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0807230</t>
+          <t>0805250</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2123,42 +2123,42 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2021-2022</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Alamosa Ombudsman School of Excellence</t>
+          <t>Paonia High School</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0368</t>
+          <t>6708</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>06508</t>
+          <t>00304</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Alamosa RE-11J</t>
+          <t>Delta County 50(J)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0100</t>
+          <t>0870</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0802070</t>
+          <t>0803330</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2175,42 +2175,42 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2021-2022</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>June Creek Elementary School</t>
+          <t>Allendale Elementary School</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4838</t>
+          <t>0148</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>06366</t>
+          <t>00692</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Eagle County RE 50</t>
+          <t>Jefferson County R-1</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0910</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0803540</t>
+          <t>0804800</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2227,42 +2227,42 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2021-2022</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Frontier High School</t>
+          <t>Pitts Elementary School</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3236</t>
+          <t>8804</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>01775</t>
+          <t>01550</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Elizabeth School District</t>
+          <t>Lake County R-1</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0920</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0803720</t>
+          <t>0805190</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2279,42 +2279,42 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2021-2022</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Calhan Middle School</t>
+          <t>Carlile Elementary School</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>1304</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>00510</t>
+          <t>01034</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Calhan RJ-1</t>
+          <t>Pueblo City 60</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0970</t>
+          <t>2690</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0802730</t>
+          <t>0806120</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2331,42 +2331,42 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Lake County Early College</t>
+          <t>Iver C. Ranum Middle School</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4952</t>
+          <t>7305</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>06729</t>
+          <t>06458</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lake County R-1</t>
+          <t>Westminster Public Schools</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>0070</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0805190</t>
+          <t>0807230</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2383,42 +2383,42 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Eckhart Elementary School</t>
+          <t>Highland Elementary</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2481</t>
+          <t>3950</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>01201</t>
+          <t>00882</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Trinidad 1</t>
+          <t>Littleton 6</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1580</t>
+          <t>0140</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0806960</t>
+          <t>0805310</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2435,42 +2435,42 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Buchanan Middle School</t>
+          <t>Peabody Elementary School</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>9729</t>
+          <t>6814</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>01817</t>
+          <t>00887</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Wray RD-2</t>
+          <t>Littleton 6</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3210</t>
+          <t>0140</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0800017</t>
+          <t>0805310</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2487,42 +2487,42 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Valley View K-8</t>
+          <t>Twain Elementary School</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>9036</t>
+          <t>5574</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>00959</t>
+          <t>00891</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Mapleton 1</t>
+          <t>Littleton 6</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0140</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0805550</t>
+          <t>0805310</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2539,42 +2539,42 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>North Elementary School</t>
+          <t>Peoria Elementary School</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6294</t>
+          <t>6869</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>00148</t>
+          <t>01927</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>School District 27J</t>
+          <t>Adams-Arapahoe 28J</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0040</t>
+          <t>0180</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0802580</t>
+          <t>0802340</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2591,42 +2591,42 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Franklin Elementary School</t>
+          <t>Cantril</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0752</t>
+          <t>1509</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>00878</t>
+          <t>06621</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Littleton 6</t>
+          <t>Douglas County Re 1</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0140</t>
+          <t>0900</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0805310</t>
+          <t>0803450</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2643,42 +2643,42 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Century Elementary School</t>
+          <t>Eagle Valley Early College High School</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1470</t>
+          <t>2643</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>01388</t>
+          <t>06709</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Adams-Arapahoe 28J</t>
+          <t>Eagle County RE 50</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0180</t>
+          <t>0910</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0802340</t>
+          <t>0803540</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2695,42 +2695,42 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lyn Knoll Elementary School</t>
+          <t>Pikes Peak Elementary School</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5361</t>
+          <t>6936</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>00070</t>
+          <t>00670</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Adams-Arapahoe 28J</t>
+          <t>Harrison 2</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0180</t>
+          <t>0980</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0802340</t>
+          <t>0804530</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2747,42 +2747,42 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Immersion Schools Science Technology Arts</t>
+          <t>Stratmoor Hills Elementary School</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4279</t>
+          <t>8337</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>06679</t>
+          <t>00671</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Las Animas RE-1</t>
+          <t>Harrison 2</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0290</t>
+          <t>0980</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0805250</t>
+          <t>0804530</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2799,42 +2799,42 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Paonia High School</t>
+          <t>Fitzmorris Elementary School</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>6708</t>
+          <t>2946</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>00304</t>
+          <t>00722</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Delta County 50(J)</t>
+          <t>Jefferson County R-1</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0870</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0803330</t>
+          <t>0804800</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2851,42 +2851,37 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Allendale Elementary School</t>
+          <t>Wellington Middle-High School</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0148</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>00692</t>
+          <t>7862</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Jefferson County R-1</t>
+          <t>Poudre R-1</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1420</t>
+          <t>1550</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0804800</t>
+          <t>0803990</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2903,42 +2898,42 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>John and Karen Litz Preschool</t>
+          <t>LEAP School</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>8458</t>
+          <t>5121</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>00791</t>
+          <t>06558</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Jefferson County R-1</t>
+          <t>Thompson R2-J</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1420</t>
+          <t>1560</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0804800</t>
+          <t>0805400</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2955,42 +2950,42 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Norma Anderson Preschool</t>
+          <t>Estes Park Options School</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3250</t>
+          <t>2788</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>06255</t>
+          <t>06426</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Jefferson County R-1</t>
+          <t>Estes Park R-3</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1420</t>
+          <t>1570</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0804800</t>
+          <t>0803810</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3007,42 +3002,42 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Pitts Elementary School</t>
+          <t>Manaugh Elementary School</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8804</t>
+          <t>5436</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>01550</t>
+          <t>00838</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lake County R-1</t>
+          <t>Montezuma-Cortez RE-1</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>2035</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0805190</t>
+          <t>0803090</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3059,42 +3054,42 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Carlile Elementary School</t>
+          <t>Olathe Middle School</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1304</t>
+          <t>6490</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>01034</t>
+          <t>00997</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Pueblo City 60</t>
+          <t>Montrose County RE-1J</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>2180</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0806120</t>
+          <t>0805790</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3111,42 +3106,42 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PSAS Homeschool Program</t>
+          <t>Hanson Elementary School</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>6817</t>
+          <t>6534</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>06763</t>
+          <t>00018</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Pueblo County 70</t>
+          <t>Adams County 14</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0806150</t>
+          <t>0801950</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3163,42 +3158,42 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Steamboat Springs Early Childhood Center</t>
+          <t>East Elementary School</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4812</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>06665</t>
+          <t>00875</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Steamboat Springs RE-2</t>
+          <t>Littleton 6</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2770</t>
+          <t>0140</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0806660</t>
+          <t>0805310</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3215,42 +3210,42 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Early Learning Center at Perl Mack</t>
+          <t>Village at North</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>9734</t>
+          <t>6292</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>06721</t>
+          <t>00764</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Westminster Public Schools</t>
+          <t>Littleton 6</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0070</t>
+          <t>0140</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0807230</t>
+          <t>0805310</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3267,42 +3262,42 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Iver C. Ranum Middle School</t>
+          <t>Paris Elementary School</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>7305</t>
+          <t>6728</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>06458</t>
+          <t>00075</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Westminster Public Schools</t>
+          <t>Adams-Arapahoe 28J</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0070</t>
+          <t>0180</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0807230</t>
+          <t>0802340</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3319,42 +3314,42 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Highland Elementary</t>
+          <t>Sable Elementary School</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3950</t>
+          <t>7558</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>00882</t>
+          <t>00077</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Littleton 6</t>
+          <t>Adams-Arapahoe 28J</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0140</t>
+          <t>0180</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0805310</t>
+          <t>0802340</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3371,42 +3366,42 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Peabody Elementary School</t>
+          <t>South Middle School</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>6814</t>
+          <t>8078</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>00887</t>
+          <t>00079</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Littleton 6</t>
+          <t>Adams-Arapahoe 28J</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0140</t>
+          <t>0180</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0805310</t>
+          <t>0802340</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3423,42 +3418,42 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Twain Elementary School</t>
+          <t>Denver Discovery School</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>2227</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>00891</t>
+          <t>06624</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Littleton 6</t>
+          <t>Denver County 1</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0140</t>
+          <t>0880</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0805310</t>
+          <t>0803360</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3475,42 +3470,42 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Peoria Elementary School</t>
+          <t>Fairview Elementary School</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>6869</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>01927</t>
+          <t>00347</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Adams-Arapahoe 28J</t>
+          <t>Denver County 1</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0180</t>
+          <t>0880</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0802340</t>
+          <t>0803360</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3527,42 +3522,42 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Noel Community Arts School</t>
+          <t>Bea Underwood Pre-School</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>3583</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>06520</t>
+          <t>06826</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Denver County 1</t>
+          <t>Garfield 16</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0880</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0803360</t>
+          <t>0804380</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3579,42 +3574,42 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Cantril</t>
+          <t>Campbell Elementary School</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1509</t>
+          <t>1238</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>06621</t>
+          <t>00702</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Douglas County Re 1</t>
+          <t>Jefferson County R-1</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0900</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0803450</t>
+          <t>0804800</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3631,42 +3626,42 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Eagle Valley Early College High School</t>
+          <t>Colorow Elementary School</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2643</t>
+          <t>1790</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>06709</t>
+          <t>00705</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Eagle County RE 50</t>
+          <t>Jefferson County R-1</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0910</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0803540</t>
+          <t>0804800</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3683,42 +3678,42 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Pikes Peak Elementary School</t>
+          <t>Emory Elementary School</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>6936</t>
+          <t>8248</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>00670</t>
+          <t>00785</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Harrison 2</t>
+          <t>Jefferson County R-1</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0980</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0804530</t>
+          <t>0804800</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3735,42 +3730,42 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Stratmoor Hills Elementary School</t>
+          <t>Glennon Heights Elementary School</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>8337</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>00671</t>
+          <t>00731</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Harrison 2</t>
+          <t>Jefferson County R-1</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0980</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0804530</t>
+          <t>0804800</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3787,27 +3782,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Fitzmorris Elementary School</t>
+          <t>Green Mountain Elementary School</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2946</t>
+          <t>3624</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>00722</t>
+          <t>00735</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3839,27 +3834,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Warren Tech North</t>
+          <t>Kullerstrand Elementary School</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>9245</t>
+          <t>4802</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>06438</t>
+          <t>00744</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3891,27 +3886,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Warren Tech South</t>
+          <t>Molholm Elementary School</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>5972</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>06815</t>
+          <t>00758</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3943,37 +3938,42 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Wellington Middle-High School</t>
+          <t>Parr Elementary School</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>7862</t>
+          <t>6806</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>00769</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Poudre R-1</t>
+          <t>Jefferson County R-1</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0803990</t>
+          <t>0804800</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3990,42 +3990,42 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>LEAP School</t>
+          <t>Peck Elementary School</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>5121</t>
+          <t>6828</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>06558</t>
+          <t>00771</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Thompson R2-J</t>
+          <t>Jefferson County R-1</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1560</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0805400</t>
+          <t>0804800</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4042,42 +4042,42 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Estes Park Options School</t>
+          <t>Peiffer Elementary School</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2788</t>
+          <t>6844</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>06426</t>
+          <t>00772</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Estes Park R-3</t>
+          <t>Jefferson County R-1</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1570</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0803810</t>
+          <t>0804800</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4094,37 +4094,42 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SIX12ONLINE</t>
+          <t>Sheridan Green Elementary School</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>6965</t>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>00741</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Valley RE-1</t>
+          <t>Jefferson County R-1</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1828</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0806690</t>
+          <t>0804800</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4141,42 +4146,42 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Manaugh Elementary School</t>
+          <t>Thomson Elementary School</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>5436</t>
+          <t>8834</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>00838</t>
+          <t>00792</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Montezuma-Cortez RE-1</t>
+          <t>Jefferson County R-1</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2035</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0803090</t>
+          <t>0804800</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4193,42 +4198,42 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Olathe Middle School</t>
+          <t>Wilmore Davis Elementary School</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>6490</t>
+          <t>9638</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>00997</t>
+          <t>00804</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Montrose County RE-1J</t>
+          <t>Jefferson County R-1</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2180</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0805790</t>
+          <t>0804800</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4255,32 +4260,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Adams12 Five Star Preschool</t>
+          <t>Witt Elementary School</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0070</t>
+          <t>9678</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>06435</t>
+          <t>01350</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Adams 12 Five Star Schools</t>
+          <t>Jefferson County R-1</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0806900</t>
+          <t>0804800</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4307,32 +4312,32 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Hanson Elementary School</t>
+          <t>Mary Blair Elementary School</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>6534</t>
+          <t>0890</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>00018</t>
+          <t>00930</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Adams County 14</t>
+          <t>Thompson R2-J</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>1560</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0801950</t>
+          <t>0805400</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4359,32 +4364,32 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>East Elementary School</t>
+          <t>Monroe Elementary School</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>5992</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>00875</t>
+          <t>00936</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Littleton 6</t>
+          <t>Thompson R2-J</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0140</t>
+          <t>1560</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0805310</t>
+          <t>0805400</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4411,32 +4416,32 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Village at North</t>
+          <t>East Middle School</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>6292</t>
+          <t>2392</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>00764</t>
+          <t>00605</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Littleton 6</t>
+          <t>Mesa County Valley 51</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0140</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0805310</t>
+          <t>0804350</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4453,42 +4458,42 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2023-2024</t>
+          <t>2024-2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Paris Elementary School</t>
+          <t>Arvada K-8</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>6728</t>
+          <t>0109</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>00075</t>
+          <t>06489</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Adams-Arapahoe 28J</t>
+          <t>Jefferson County R-1</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0180</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0802340</t>
+          <t>0804800</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4505,42 +4510,42 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2023-2024</t>
+          <t>2024-2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Sable Elementary School</t>
+          <t>Bergen Meadow Primary School</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>7558</t>
+          <t>0776</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>00077</t>
+          <t>00701</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Adams-Arapahoe 28J</t>
+          <t>Jefferson County R-1</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0180</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0802340</t>
+          <t>0804800</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4557,42 +4562,42 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2023-2024</t>
+          <t>2024-2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>South Middle School</t>
+          <t>Moore Middle School</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>8078</t>
+          <t>6090</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>00079</t>
+          <t>01317</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Adams-Arapahoe 28J</t>
+          <t>Jefferson County R-1</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0180</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0802340</t>
+          <t>0804800</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4609,42 +4614,42 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2023-2024</t>
+          <t>2024-2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Denver Discovery School</t>
+          <t>Fruita 8/9 School</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2227</t>
+          <t>0361</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>06624</t>
+          <t>02020</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Denver County 1</t>
+          <t>Mesa County Valley 51</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0880</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0803360</t>
+          <t>0804350</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4661,42 +4666,42 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2023-2024</t>
+          <t>2024-2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Fairview Elementary School</t>
+          <t>Washington Primary School</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>9264</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>00347</t>
+          <t>01104</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Denver County 1</t>
+          <t>Rocky Ford R-2</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0880</t>
+          <t>2530</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0803360</t>
+          <t>0806270</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4705,1561 +4710,6 @@
         </is>
       </c>
       <c r="J84" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Briargate Preschool</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>1033</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>06619</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Academy 20</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>1040</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>0801920</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Bea Underwood Pre-School</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>3583</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>06826</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Garfield 16</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>0804380</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Campbell Elementary School</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>1238</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>00702</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Jefferson County R-1</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>1420</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>0804800</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Colorow Elementary School</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>1790</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>00705</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Jefferson County R-1</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>1420</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>0804800</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Emory Elementary School</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>8248</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>00785</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Jefferson County R-1</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>1420</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>0804800</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Glennon Heights Elementary School</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>3450</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>00731</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Jefferson County R-1</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>1420</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>0804800</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Green Mountain Elementary School</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>3624</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>00735</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Jefferson County R-1</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>1420</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>0804800</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Kullerstrand Elementary School</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>4802</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>00744</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Jefferson County R-1</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>1420</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>0804800</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Molholm Elementary School</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>5972</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>00758</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Jefferson County R-1</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>1420</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>0804800</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Parr Elementary School</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>6806</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>00769</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Jefferson County R-1</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>1420</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>0804800</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Peck Elementary School</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>6828</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>00771</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Jefferson County R-1</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>1420</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>0804800</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Peiffer Elementary School</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>6844</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>00772</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Jefferson County R-1</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>1420</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>0804800</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Sheridan Green Elementary School</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>00741</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Jefferson County R-1</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>1420</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>0804800</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Thomson Elementary School</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>8834</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>00792</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Jefferson County R-1</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>1420</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>0804800</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Wilmore Davis Elementary School</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>9638</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>00804</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Jefferson County R-1</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>1420</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>0804800</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Witt Elementary School</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>9678</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>01350</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Jefferson County R-1</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>1420</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>0804800</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Mary Blair Elementary School</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>0890</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>00930</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Thompson R2-J</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>1560</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>0805400</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Monroe Elementary School</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>5992</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>00936</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Thompson R2-J</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>1560</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>0805400</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>East Middle School</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>2392</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>00605</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Mesa County Valley 51</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>0804350</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Lincoln Park Preschool</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>4084</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>06471</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Mesa County Valley 51</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>0804350</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Northmoor Preschool</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>6399</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>06529</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Pueblo City 60</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>2690</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>0806120</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>District 6 Career and Technical Education Center</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>2177</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Greeley 6</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>0804410</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>ECC Aims District 6 Preschool</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>2703</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>06741</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Greeley 6</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>0804410</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Battle Mountain Early College High School</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>0861</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>06707</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Eagle County RE 50</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>0910</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>0803540</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Arvada K-8</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>0109</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>06489</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Jefferson County R-1</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>1420</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>0804800</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Bergen Meadow Primary School</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>0776</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>00701</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Jefferson County R-1</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>1420</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>0804800</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Irwin Preschool</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>4307</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>06726</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Jefferson County R-1</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>1420</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>0804800</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Moore Middle School</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>6090</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>01317</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Jefferson County R-1</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>1420</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>0804800</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Fruita 8/9 School</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>0361</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>02020</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Mesa County Valley 51</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>0804350</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Washington Primary School</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>9264</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>01104</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Rocky Ford R-2</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>2530</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>0806270</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
         <is>
           <t>public</t>
         </is>
